--- a/uploads/delete_eo.xlsx
+++ b/uploads/delete_eo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhupanikEG\Desktop\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhupanikEG\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22530" windowHeight="8595"/>
   </bookViews>
   <sheets>
     <sheet name="delete_eo" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>eo_code</t>
   </si>
@@ -35,7 +35,13 @@
     <t>delete</t>
   </si>
   <si>
-    <t>новый номер</t>
+    <t>100000030432</t>
+  </si>
+  <si>
+    <t>100000091184</t>
+  </si>
+  <si>
+    <t>100000036815</t>
   </si>
 </sst>
 </file>
@@ -364,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,10 +398,27 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>
-    <customPr name="_pios_id" r:id="rId1"/>
+    <customPr name="_pios_id" r:id="rId2"/>
   </customProperties>
 </worksheet>
 </file>